--- a/src/main/resources/template/excel/export/overShortReport1.xlsx
+++ b/src/main/resources/template/excel/export/overShortReport1.xlsx
@@ -71,18 +71,6 @@
     <t>总计：</t>
   </si>
   <si>
-    <t>$[SUM(F3)]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(G3)]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(H3)]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>现金长短款报表</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -136,6 +124,150 @@
   </si>
   <si>
     <t>${obj.difference}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>$[SUM</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PRODUCT</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(F3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+0</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)]</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>$[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SUMPRODUCT</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(G3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+0</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)]</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>$[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SUMPRODUCT</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(H3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+0</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)]</t>
+    </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -143,10 +275,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
+    <numFmt numFmtId="177" formatCode="0.0000_ "/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,6 +329,14 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -254,7 +395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -278,6 +419,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -585,7 +736,7 @@
   <dimension ref="A1:EB76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -595,15 +746,15 @@
     <col min="3" max="3" width="16.625" style="3" customWidth="1"/>
     <col min="4" max="4" width="17.375" style="3" customWidth="1"/>
     <col min="5" max="5" width="14.25" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="16.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.375" style="12" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="16.625" style="12" customWidth="1"/>
     <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:132" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -739,28 +890,28 @@
     </row>
     <row r="2" spans="1:132" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="G2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="H2" s="9" t="s">
         <v>11</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -895,22 +1046,22 @@
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="G3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="H3" s="10" t="s">
         <v>17</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:132" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -921,14 +1072,14 @@
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>6</v>
+      <c r="F4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:132" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/src/main/resources/template/excel/export/overShortReport1.xlsx
+++ b/src/main/resources/template/excel/export/overShortReport1.xlsx
@@ -71,10 +71,6 @@
     <t>总计：</t>
   </si>
   <si>
-    <t>现金长短款报表</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>机构编码</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -268,6 +264,10 @@
       </rPr>
       <t>)]</t>
     </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>现金长短款日报表</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -413,12 +413,6 @@
     <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -429,6 +423,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -736,7 +736,7 @@
   <dimension ref="A1:EB76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="F16" activeCellId="1" sqref="A1:H1 F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -746,23 +746,23 @@
     <col min="3" max="3" width="16.625" style="3" customWidth="1"/>
     <col min="4" max="4" width="17.375" style="3" customWidth="1"/>
     <col min="5" max="5" width="14.25" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.375" style="12" customWidth="1"/>
-    <col min="7" max="7" width="12.625" style="12" customWidth="1"/>
-    <col min="8" max="8" width="16.625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="15.375" style="10" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="16.625" style="10" customWidth="1"/>
     <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:132" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="A1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
@@ -890,28 +890,28 @@
     </row>
     <row r="2" spans="1:132" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="7" t="s">
         <v>10</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>11</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -1046,22 +1046,22 @@
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="G3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="H3" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:132" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1072,14 +1072,14 @@
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="H4" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:132" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/src/main/resources/template/excel/export/overShortReport1.xlsx
+++ b/src/main/resources/template/excel/export/overShortReport1.xlsx
@@ -31,6 +31,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>jx:area(lastCell="H4")</t>
@@ -44,6 +45,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>jx:each(items="reportList" var="obj" lastCell="H3")</t>
@@ -123,6 +125,10 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>现金长短款日报表</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>$[SUM</t>
     </r>
@@ -135,38 +141,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>PRODUCT</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(F3</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>+0</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)]</t>
+      <t>PRODUCT(F3:F3+0)]</t>
     </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -183,38 +158,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>SUMPRODUCT</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(G3</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>+0</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)]</t>
+      <t>SUMPRODUCT(G3:G3+0)]</t>
     </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -231,43 +175,8 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>SUMPRODUCT</t>
+      <t>SUMPRODUCT(H3:H3+0)]</t>
     </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(H3</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>+0</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)]</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>现金长短款日报表</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -279,7 +188,7 @@
     <numFmt numFmtId="176" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
     <numFmt numFmtId="177" formatCode="0.0000_ "/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,12 +200,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -304,31 +215,8 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -337,6 +225,26 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -395,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -418,9 +326,6 @@
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -736,7 +641,7 @@
   <dimension ref="A1:EB76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" activeCellId="1" sqref="A1:H1 F16"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -746,23 +651,23 @@
     <col min="3" max="3" width="16.625" style="3" customWidth="1"/>
     <col min="4" max="4" width="17.375" style="3" customWidth="1"/>
     <col min="5" max="5" width="14.25" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.375" style="10" customWidth="1"/>
-    <col min="7" max="7" width="12.625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="16.625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="15.375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="16.625" style="9" customWidth="1"/>
     <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:132" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
+      <c r="A1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
@@ -1072,14 +977,14 @@
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="9" t="s">
+      <c r="F4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="G4" s="7" t="s">
         <v>19</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:132" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/src/main/resources/template/excel/export/overShortReport1.xlsx
+++ b/src/main/resources/template/excel/export/overShortReport1.xlsx
@@ -129,54 +129,15 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>$[SUM</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>PRODUCT(F3:F3+0)]</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>$[</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>SUMPRODUCT(G3:G3+0)]</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>$[</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>SUMPRODUCT(H3:H3+0)]</t>
-    </r>
+    <t>$[SUMPRODUCT(F3:F3:F3+0)]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(G3:G3:G3+0)]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(H3:H3:H3+0)]</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -641,7 +602,7 @@
   <dimension ref="A1:EB76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
